--- a/Dataset Raw/34-laporan_iklim_harian.xlsx
+++ b/Dataset Raw/34-laporan_iklim_harian.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo E15\Documents\Data Science\Jakarta-Weather-Prediction-2025\Dataset Raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F577D4-58A9-4D15-8F05-259F447EC9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>ID WMO</t>
   </si>
@@ -201,28 +211,32 @@
   </si>
   <si>
     <t>ddd_car: Arah angin terbanyak(°)</t>
+  </si>
+  <si>
+    <t>28-10-2025</t>
+  </si>
+  <si>
+    <t>29-10-2025</t>
+  </si>
+  <si>
+    <t>30-10-2025</t>
+  </si>
+  <si>
+    <t>31-10-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -236,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,34 +273,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -302,7 +318,13 @@
     <xdr:ext cx="952500" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Logo" descr="Logo"/>
+        <xdr:cNvPr id="2" name="Logo" descr="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -314,7 +336,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -611,25 +636,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A36" sqref="A36:K36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -645,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -653,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -661,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -669,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -704,21 +727,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D9" s="2">
         <v>28.3</v>
       </c>
       <c r="E9" s="2">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2">
         <v>21.2</v>
@@ -727,19 +750,19 @@
         <v>0.8</v>
       </c>
       <c r="H9" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
         <v>120</v>
       </c>
       <c r="J9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -753,28 +776,28 @@
         <v>28.8</v>
       </c>
       <c r="E10" s="2">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
         <v>260</v>
       </c>
       <c r="J10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -782,34 +805,34 @@
         <v>26.4</v>
       </c>
       <c r="C11" s="2">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D11" s="2">
         <v>29.6</v>
       </c>
       <c r="E11" s="2">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2">
         <v>30</v>
       </c>
       <c r="J11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -817,69 +840,69 @@
         <v>26.4</v>
       </c>
       <c r="C12" s="2">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D12" s="2">
         <v>30.2</v>
       </c>
       <c r="E12" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>2.7</v>
       </c>
       <c r="H12" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2">
         <v>300</v>
       </c>
       <c r="J12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>30.3</v>
       </c>
       <c r="E13" s="2">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="2">
         <v>350</v>
       </c>
       <c r="J13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -893,28 +916,28 @@
         <v>30.2</v>
       </c>
       <c r="E14" s="2">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2">
         <v>80</v>
       </c>
       <c r="J14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -922,34 +945,34 @@
         <v>27.4</v>
       </c>
       <c r="C15" s="2">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D15" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>5.6</v>
       </c>
       <c r="H15" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2">
         <v>260</v>
       </c>
       <c r="J15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -957,39 +980,39 @@
         <v>26.2</v>
       </c>
       <c r="C16" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>29.4</v>
       </c>
       <c r="E16" s="2">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="2">
         <v>280</v>
       </c>
       <c r="J16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <v>33.4</v>
@@ -998,28 +1021,28 @@
         <v>29.8</v>
       </c>
       <c r="E17" s="2">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H17" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="2">
         <v>330</v>
       </c>
       <c r="J17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1033,28 +1056,28 @@
         <v>29.4</v>
       </c>
       <c r="E18" s="2">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H18" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
         <v>270</v>
       </c>
       <c r="J18" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1068,28 +1091,28 @@
         <v>30.2</v>
       </c>
       <c r="E19" s="2">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>6.8</v>
       </c>
       <c r="H19" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="2">
         <v>120</v>
       </c>
       <c r="J19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1097,34 +1120,34 @@
         <v>27.8</v>
       </c>
       <c r="C20" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>31.2</v>
       </c>
       <c r="E20" s="2">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H20" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2">
         <v>30</v>
       </c>
       <c r="J20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1132,34 +1155,34 @@
         <v>27.2</v>
       </c>
       <c r="C21" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>31.4</v>
       </c>
       <c r="E21" s="2">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2">
         <v>90</v>
       </c>
       <c r="J21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1167,13 +1190,13 @@
         <v>27.4</v>
       </c>
       <c r="C22" s="2">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D22" s="2">
         <v>30.7</v>
       </c>
       <c r="E22" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2">
         <v>2.5</v>
@@ -1182,24 +1205,24 @@
         <v>6.8</v>
       </c>
       <c r="H22" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2">
         <v>80</v>
       </c>
       <c r="J22" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>33.4</v>
@@ -1208,33 +1231,33 @@
         <v>30.6</v>
       </c>
       <c r="E23" s="2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H23" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2">
         <v>60</v>
       </c>
       <c r="J23" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>35.4</v>
@@ -1243,7 +1266,7 @@
         <v>30.7</v>
       </c>
       <c r="E24" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F24" s="2">
         <v>0.9</v>
@@ -1252,24 +1275,24 @@
         <v>7.2</v>
       </c>
       <c r="H24" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2">
         <v>90</v>
       </c>
       <c r="J24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2">
         <v>34.4</v>
@@ -1278,42 +1301,42 @@
         <v>30.8</v>
       </c>
       <c r="E25" s="2">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="2">
         <v>280</v>
       </c>
       <c r="J25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>29.9</v>
       </c>
       <c r="E26" s="2">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2">
         <v>1.9</v>
@@ -1322,24 +1345,24 @@
         <v>4.2</v>
       </c>
       <c r="H26" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="2">
         <v>250</v>
       </c>
       <c r="J26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2">
         <v>33.4</v>
@@ -1348,168 +1371,168 @@
         <v>30.3</v>
       </c>
       <c r="E27" s="2">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>2.6</v>
       </c>
       <c r="H27" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2">
         <v>210</v>
       </c>
       <c r="J27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>31.1</v>
       </c>
       <c r="E28" s="2">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>3.3</v>
       </c>
       <c r="H28" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="2">
         <v>300</v>
       </c>
       <c r="J28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D29" s="2">
         <v>30.9</v>
       </c>
       <c r="E29" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2">
         <v>300</v>
       </c>
       <c r="J29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D30" s="2">
         <v>28.8</v>
       </c>
       <c r="E30" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2">
         <v>13.6</v>
       </c>
       <c r="G30" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H30" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I30" s="2">
         <v>260</v>
       </c>
       <c r="J30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="D31" s="2">
         <v>28.8</v>
       </c>
       <c r="E31" s="2">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="F31" s="2">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="G31" s="2">
         <v>5.4</v>
       </c>
       <c r="H31" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I31" s="2">
         <v>240</v>
       </c>
       <c r="J31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -1523,7 +1546,7 @@
         <v>28.4</v>
       </c>
       <c r="E32" s="2">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2">
         <v>8.9</v>
@@ -1532,19 +1555,19 @@
         <v>2.8</v>
       </c>
       <c r="H32" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I32" s="2">
         <v>110</v>
       </c>
       <c r="J32" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -1558,7 +1581,7 @@
         <v>29.3</v>
       </c>
       <c r="E33" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2">
         <v>4.5</v>
@@ -1567,33 +1590,33 @@
         <v>3.8</v>
       </c>
       <c r="H33" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2">
         <v>250</v>
       </c>
       <c r="J33" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>29.2</v>
       </c>
       <c r="E34" s="2">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2">
         <v>0.7</v>
@@ -1602,19 +1625,19 @@
         <v>3.3</v>
       </c>
       <c r="H34" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I34" s="2">
         <v>250</v>
       </c>
       <c r="J34" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1628,118 +1651,235 @@
         <v>28.7</v>
       </c>
       <c r="E35" s="2">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>5.4</v>
       </c>
       <c r="H35" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I35" s="2">
         <v>290</v>
       </c>
       <c r="J35" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="C36" s="4">
+        <v>31</v>
+      </c>
+      <c r="D36" s="4">
+        <v>28</v>
+      </c>
+      <c r="E36" s="4">
+        <v>79</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="G36" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>350</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="C37" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D37" s="4">
+        <v>28.3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>78</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>3</v>
+      </c>
+      <c r="I37" s="4">
+        <v>270</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D38" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="E38" s="4">
+        <v>81</v>
+      </c>
+      <c r="F38" s="4">
+        <v>67</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="H38" s="4">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>90</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="C39" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="E39" s="4">
+        <v>77</v>
+      </c>
+      <c r="F39" s="4">
+        <v>16</v>
+      </c>
+      <c r="G39" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="H39" s="4">
+        <v>4</v>
+      </c>
+      <c r="I39" s="4">
+        <v>250</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup fitToHeight="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="0"/>
 </worksheet>
 </file>